--- a/po_analysis_by_asin/B0CV2VVTX4_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2VVTX4_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>22</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>8</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>28</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>52</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>26</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>64</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>26</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>24</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>80</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>28</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>90</v>

--- a/po_analysis_by_asin/B0CV2VVTX4_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2VVTX4_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -605,7 +606,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -679,6 +680,383 @@
       </c>
       <c r="B10" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-24.99455397570485</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.62071325473459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.47983989709691</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.65580657540976</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-15.6039786603724</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.44912068674154</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-15.21015836924235</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.49276532389167</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-12.32949662048703</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.28933099593345</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.667259161093442</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.76387306168566</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.179065210539243</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.9387961614021</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.898033273167417</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.4288878779542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6866365700226914</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.96317941957778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.784222621341873</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.18685539886252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.961507462269044</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40.20472481601283</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.153853271883044</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43.44413564362883</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10.66769351322982</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46.71104809728499</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.44349410680329</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47.64813436945327</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.24794846137248</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50.6554933053426</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.61916861495184</v>
+      </c>
+      <c r="D17" t="n">
+        <v>51.80723644466568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.55898793704416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>54.35337078168578</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.37088270864909</v>
+      </c>
+      <c r="D19" t="n">
+        <v>53.81962592766918</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19.99887717656677</v>
+      </c>
+      <c r="D20" t="n">
+        <v>54.93117328522171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>38</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19.34881595304724</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56.56173702966356</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.25873045291897</v>
+      </c>
+      <c r="D22" t="n">
+        <v>58.75124351400969</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>41</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.58176011069866</v>
+      </c>
+      <c r="D23" t="n">
+        <v>58.19818105010038</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.34557266132923</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59.77442175118065</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24.03857455571851</v>
+      </c>
+      <c r="D25" t="n">
+        <v>61.75680816331612</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CV2VVTX4_po_data.xlsx
+++ b/po_analysis_by_asin/B0CV2VVTX4_po_data.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,16 +712,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -730,12 +720,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-24.99455397570485</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.62071325473459</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -744,12 +728,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.47983989709691</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.65580657540976</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -758,12 +736,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>-15.6039786603724</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.44912068674154</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -772,12 +744,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-15.21015836924235</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.49276532389167</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -786,12 +752,6 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>-12.32949662048703</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26.28933099593345</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -800,12 +760,6 @@
       <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="C7" t="n">
-        <v>-8.667259161093442</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.76387306168566</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -814,12 +768,6 @@
       <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.179065210539243</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.9387961614021</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -828,12 +776,6 @@
       <c r="B9" t="n">
         <v>13</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.898033273167417</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.4288878779542</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -842,12 +784,6 @@
       <c r="B10" t="n">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.6866365700226914</v>
-      </c>
-      <c r="D10" t="n">
-        <v>35.96317941957778</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -856,12 +792,6 @@
       <c r="B11" t="n">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
-        <v>2.784222621341873</v>
-      </c>
-      <c r="D11" t="n">
-        <v>39.18685539886252</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -870,12 +800,6 @@
       <c r="B12" t="n">
         <v>22</v>
       </c>
-      <c r="C12" t="n">
-        <v>3.961507462269044</v>
-      </c>
-      <c r="D12" t="n">
-        <v>40.20472481601283</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -884,12 +808,6 @@
       <c r="B13" t="n">
         <v>25</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.153853271883044</v>
-      </c>
-      <c r="D13" t="n">
-        <v>43.44413564362883</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -898,12 +816,6 @@
       <c r="B14" t="n">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>10.66769351322982</v>
-      </c>
-      <c r="D14" t="n">
-        <v>46.71104809728499</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -912,12 +824,6 @@
       <c r="B15" t="n">
         <v>29</v>
       </c>
-      <c r="C15" t="n">
-        <v>10.44349410680329</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47.64813436945327</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -926,12 +832,6 @@
       <c r="B16" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>15.24794846137248</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50.6554933053426</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -940,12 +840,6 @@
       <c r="B17" t="n">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
-        <v>14.61916861495184</v>
-      </c>
-      <c r="D17" t="n">
-        <v>51.80723644466568</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -954,12 +848,6 @@
       <c r="B18" t="n">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>18.55898793704416</v>
-      </c>
-      <c r="D18" t="n">
-        <v>54.35337078168578</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -968,12 +856,6 @@
       <c r="B19" t="n">
         <v>36</v>
       </c>
-      <c r="C19" t="n">
-        <v>17.37088270864909</v>
-      </c>
-      <c r="D19" t="n">
-        <v>53.81962592766918</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -982,12 +864,6 @@
       <c r="B20" t="n">
         <v>37</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.99887717656677</v>
-      </c>
-      <c r="D20" t="n">
-        <v>54.93117328522171</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -996,12 +872,6 @@
       <c r="B21" t="n">
         <v>38</v>
       </c>
-      <c r="C21" t="n">
-        <v>19.34881595304724</v>
-      </c>
-      <c r="D21" t="n">
-        <v>56.56173702966356</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1010,12 +880,6 @@
       <c r="B22" t="n">
         <v>40</v>
       </c>
-      <c r="C22" t="n">
-        <v>20.25873045291897</v>
-      </c>
-      <c r="D22" t="n">
-        <v>58.75124351400969</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1024,12 +888,6 @@
       <c r="B23" t="n">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>21.58176011069866</v>
-      </c>
-      <c r="D23" t="n">
-        <v>58.19818105010038</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1038,12 +896,6 @@
       <c r="B24" t="n">
         <v>42</v>
       </c>
-      <c r="C24" t="n">
-        <v>24.34557266132923</v>
-      </c>
-      <c r="D24" t="n">
-        <v>59.77442175118065</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1051,12 +903,6 @@
       </c>
       <c r="B25" t="n">
         <v>43</v>
-      </c>
-      <c r="C25" t="n">
-        <v>24.03857455571851</v>
-      </c>
-      <c r="D25" t="n">
-        <v>61.75680816331612</v>
       </c>
     </row>
   </sheetData>
